--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-02.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-02.xlsx
@@ -812,7 +812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] I don’t care.
+    <t xml:space="preserve">[name="Rosmontis"] I don't care.
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The Shieldguard looks like he’s thinking back to something. He pays no more attention to Rosmontis, puts on his helmet once again, and walks off to his comrades-in-arms.
+    <t xml:space="preserve">The Shieldguard looks like he's thinking back to something. He pays no more attention to Rosmontis, puts on his helmet once again, and walks off to his comrades-in-arms.
 </t>
   </si>
   <si>
